--- a/maps/xtehr2zibs2024/Pregnancy-PregnancyHistory-full.xlsx
+++ b/maps/xtehr2zibs2024/Pregnancy-PregnancyHistory-full.xlsx
@@ -604,7 +604,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.narrative</t>
+          <t>EHDSPregnancyHistory.presentedForm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -619,32 +619,32 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.narrative</t>
+          <t>EHDSPregnancyHistory.presentedForm</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.narrative</t>
+          <t>EHDSPregnancyHistory.presentedForm</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Narrative, potentially formatted, content of the section</t>
+          <t>A narrative easy-to-read representation of the full data set, e.g. PDF-version of a document</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Narrative description describing the outcome of any previous pregnancies.</t>
+          <t>A narrative easy-to-read representation of the full data set, e.g. PDF-version of a document</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>EHDSAttachment</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0..1</t>
+          <t>0..*</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -652,7 +652,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.numberOfChildren</t>
+          <t>EHDSPregnancyHistory.narrative</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -667,27 +667,27 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.numberOfChildren</t>
+          <t>EHDSPregnancyHistory.narrative</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.numberOfChildren</t>
+          <t>EHDSPregnancyHistory.narrative</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Number of children/fetuses in this specific pregnancy</t>
+          <t>Narrative, potentially formatted, content of the section</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Number of children/fetuses in this specific pregnancy</t>
+          <t>Narrative description describing the outcome of any previous pregnancies.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.outcome</t>
+          <t>EHDSPregnancyHistory.outcomeDate</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -715,27 +715,27 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.outcome</t>
+          <t>EHDSPregnancyHistory.outcomeDate</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.outcome</t>
+          <t>EHDSPregnancyHistory.outcomeDate</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Outcome date</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Outcome of the previous pregnancy.</t>
+          <t>Date referred to the previous pregnancies outcome.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>CodeableConcept</t>
+          <t>dateTime</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -743,16 +743,12 @@
           <t>0..1</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.62 eHDSIOutcomeOfPregnancy (SNOMED CT, used in MH@EU); 1.3.6.1.4.1.12559.11.10.1.3.1.42.63 eHDSIRareDisease (OrphaCodes, used in MH@EU); ICD-11; SNOMED CT'}</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.outcomeDate</t>
+          <t>EHDSPregnancyHistory.outcome</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -767,27 +763,27 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.outcomeDate</t>
+          <t>EHDSPregnancyHistory.outcome</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.outcomeDate</t>
+          <t>EHDSPregnancyHistory.outcome</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Outcome date</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Date referred to the previous pregnancies outcome.</t>
+          <t>Outcome of the previous pregnancy.</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>CodeableConcept</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -795,12 +791,16 @@
           <t>0..1</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.62 eHDSIOutcomeOfPregnancy (SNOMED CT, used in MH@EU); 1.3.6.1.4.1.12559.11.10.1.3.1.42.63 eHDSIRareDisease (OrphaCodes, used in MH@EU); ICD-11; SNOMED CT'}</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.presentedForm</t>
+          <t>EHDSPregnancyHistory.numberOfChildren</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -815,32 +815,32 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.presentedForm</t>
+          <t>EHDSPregnancyHistory.numberOfChildren</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EHDSPregnancyHistory.presentedForm</t>
+          <t>EHDSPregnancyHistory.numberOfChildren</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>A narrative easy-to-read representation of the full data set, e.g. PDF-version of a document</t>
+          <t>Number of children/fetuses in this specific pregnancy</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>A narrative easy-to-read representation of the full data set, e.g. PDF-version of a document</t>
+          <t>Number of children/fetuses in this specific pregnancy</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>EHDSAttachment</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0..*</t>
+          <t>0..1</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -849,27 +849,27 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pregnancy.Comment</t>
+          <t>Pregnancy.PregnancyDuration</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Comment</t>
+          <t>PregnancyDuration</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pregnancy.Comment</t>
+          <t>Pregnancy.PregnancyDuration</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NL: Toelichting</t>
+          <t>NL: Zwangerschapsduur</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>PQ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.7</t>
+          <t>NL-CM:7.14.4</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Comment on the pregnancy.</t>
+          <t>Duration of the pregnancy on the day on which the patient was asked. The duration can be given in days (d) or weeks (wk).</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>LOINC: 48767-8 Annotation comment [Interpretation] Narrative</t>
+          <t>SNOMED CT: 57036006 Fetal gestational age</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -909,25 +909,29 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems</t>
+          <t>Pregnancy.Parity</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EstimatedDateOfDeliveryItems</t>
+          <t>Parity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems</t>
+          <t>Pregnancy.Parity</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NL: ATermeDatumItems</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>NL: Pariteit</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>0..1</t>
@@ -935,20 +939,24 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>data</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.9</t>
+          <t>NL-CM:7.14.6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Container of the EstimatedDateOfDeliveryItems concept.This container contains all data elements of the EstimatedDateOfDeliveryItems concept.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>Number of previous pregnancies ending in partum (&gt;= 16w 0d / 112 days).</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>SNOMED CT: 364325004 Parity</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -961,27 +969,27 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems.DateLastMenstruation</t>
+          <t>Pregnancy.Gravidity</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DateLastMenstruation</t>
+          <t>Gravidity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems.DateLastMenstruation</t>
+          <t>Pregnancy.Gravidity</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NL: DatumLaatsteMenstruatie</t>
+          <t>NL: Graviditeit</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -996,17 +1004,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.8</t>
+          <t>NL-CM:7.14.5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The date on which the last menstruation started.</t>
+          <t>The number of times the woman has gotten pregnant (including this one).</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>SNOMED CT: 21840007 Date of last menstrual period</t>
+          <t>SNOMED CT: 161732006 Gravida</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1021,27 +1029,27 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems.DateOfEstimation</t>
+          <t>Pregnancy.Comment</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DateOfEstimation</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems.DateOfEstimation</t>
+          <t>Pregnancy.Comment</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NL: DatumBepaling</t>
+          <t>NL: Toelichting</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1056,15 +1064,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.11</t>
+          <t>NL-CM:7.14.7</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Date on which the delivery date is estimated.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>Comment on the pregnancy.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>LOINC: 48767-8 Annotation comment [Interpretation] Narrative</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1077,29 +1089,25 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems.EstimatedDateOfDelivery</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EstimatedDateOfDelivery</t>
+          <t>EstimatedDateOfDeliveryItems</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems.EstimatedDateOfDelivery</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NL: ATermeDatum</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
+          <t>NL: ATermeDatumItems</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>0..1</t>
@@ -1107,24 +1115,20 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>container</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.3</t>
+          <t>NL-CM:7.14.9</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>The date on which the pregnancy is expected to be 40w 0d (280 days). Different due dates are used at various points in the pregnancy.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>SNOMED CT: 161714006 Estimated date of delivery</t>
-        </is>
-      </c>
+          <t>Container of the EstimatedDateOfDeliveryItems concept.This container contains all data elements of the EstimatedDateOfDeliveryItems concept.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1137,27 +1141,27 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems.EstimatingMethod</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems.EstimatedDateOfDelivery</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EstimatingMethod</t>
+          <t>EstimatedDateOfDelivery</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pregnancy.EstimatedDateOfDeliveryItems.EstimatingMethod</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems.EstimatedDateOfDelivery</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NL: BepalingsMethode</t>
+          <t>NL: ATermeDatum</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1172,15 +1176,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.10</t>
+          <t>NL-CM:7.14.3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Method by which the delivery date is estimated.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>The date on which the pregnancy is expected to be 40w 0d (280 days). Different due dates are used at various points in the pregnancy.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SNOMED CT: 161714006 Estimated date of delivery</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1193,27 +1201,27 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pregnancy.Gravidity</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems.EstimatingMethod</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Gravidity</t>
+          <t>EstimatingMethod</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pregnancy.Gravidity</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems.EstimatingMethod</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NL: Graviditeit</t>
+          <t>NL: BepalingsMethode</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1228,19 +1236,15 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.5</t>
+          <t>NL-CM:7.14.10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>The number of times the woman has gotten pregnant (including this one).</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>SNOMED CT: 161732006 Gravida</t>
-        </is>
-      </c>
+          <t>Method by which the delivery date is estimated.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1253,27 +1257,27 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pregnancy.Parity</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems.DateOfEstimation</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parity</t>
+          <t>DateOfEstimation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pregnancy.Parity</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems.DateOfEstimation</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NL: Pariteit</t>
+          <t>NL: DatumBepaling</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1288,19 +1292,15 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.6</t>
+          <t>NL-CM:7.14.11</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Number of previous pregnancies ending in partum (&gt;= 16w 0d / 112 days).</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>SNOMED CT: 364325004 Parity</t>
-        </is>
-      </c>
+          <t>Date on which the delivery date is estimated.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1313,27 +1313,27 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pregnancy.PregnancyDuration</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems.DateLastMenstruation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PregnancyDuration</t>
+          <t>DateLastMenstruation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pregnancy.PregnancyDuration</t>
+          <t>Pregnancy.EstimatedDateOfDeliveryItems.DateLastMenstruation</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NL: Zwangerschapsduur</t>
+          <t>NL: DatumLaatsteMenstruatie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PQ</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1348,17 +1348,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NL-CM:7.14.4</t>
+          <t>NL-CM:7.14.8</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Duration of the pregnancy on the day on which the patient was asked. The duration can be given in days (d) or weeks (wk).</t>
+          <t>The date on which the last menstruation started.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>SNOMED CT: 57036006 Fetal gestational age</t>
+          <t>SNOMED CT: 21840007 Date of last menstrual period</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
